--- a/ResultswithSE.xlsx
+++ b/ResultswithSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/New Version/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{04B505F2-7F91-4345-AE3C-4CE20824191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{848D5F4A-4219-4FC8-BD0A-543C3CCF7422}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D77A5-4A48-4E95-9402-15E9B5F399B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9D439E66-86F8-4D37-AA0C-21B04FFD7D96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D439E66-86F8-4D37-AA0C-21B04FFD7D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="39">
   <si>
     <t>Bulgaria</t>
   </si>
@@ -128,12 +131,6 @@
     <t>D5_ProMarket</t>
   </si>
   <si>
-    <t>Resilience</t>
-  </si>
-  <si>
-    <t>D6_Protestant Ethic</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>D5_Protestant Ethic</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6494AB0-E52F-4ABC-9EEF-9EBC7AAFE0F9}">
   <dimension ref="A1:BY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,76 +690,76 @@
         <v>2</v>
       </c>
       <c r="BB1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BC1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BD1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BE1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BF1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BG1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BH1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BI1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BJ1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BK1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BL1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BN1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BO1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BP1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BQ1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BR1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BS1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BT1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BU1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BV1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BW1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BX1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BY1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.25">
@@ -991,10 +991,10 @@
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>1034</v>
@@ -5476,10 +5476,10 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>-0.73085</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
         <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
       </c>
       <c r="C25">
         <v>-0.75551000000000001</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>1.98E-3</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>-1.16072</v>
